--- a/kata.xlsx
+++ b/kata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emiratesgroup-my.sharepoint.com/personal/sashwat_gupta_emirates_com/Documents/Documents/architecture/kata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{562D9180-EB12-466D-BA6E-20803DCA07EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{684502E6-6B80-4AE1-AA0D-A1795D85F9FE}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{562D9180-EB12-466D-BA6E-20803DCA07EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B85C47D-8697-4505-8FB9-E88284CB548C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Business Goals</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Customer Profile Management</t>
-  </si>
-  <si>
-    <t>Rahul/Sashwat</t>
   </si>
   <si>
     <t>customer profiles that include personal information, travel
@@ -222,6 +219,15 @@
   </si>
   <si>
     <t>Customer Profile View, Customer Interaction Management</t>
+  </si>
+  <si>
+    <t>Functionality in module</t>
+  </si>
+  <si>
+    <t>Technical details</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,13 +265,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,14 +743,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1A70FB-5AA8-45BB-BF76-CBE79A72D8C2}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="69.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -750,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -758,158 +782,177 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/kata.xlsx
+++ b/kata.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emiratesgroup-my.sharepoint.com/personal/sashwat_gupta_emirates_com/Documents/Documents/architecture/kata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{562D9180-EB12-466D-BA6E-20803DCA07EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B85C47D-8697-4505-8FB9-E88284CB548C}"/>
+  <xr:revisionPtr revIDLastSave="410" documentId="8_{562D9180-EB12-466D-BA6E-20803DCA07EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{689280C7-7D62-43E9-AF58-2A9E9D3A574A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Capabilities View" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="User" sheetId="4" r:id="rId4"/>
+    <sheet name="Systems" sheetId="5" r:id="rId5"/>
+    <sheet name="Mappings" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
   <si>
     <t>Business Goals</t>
   </si>
@@ -228,13 +233,330 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>Integration system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incoming </t>
+  </si>
+  <si>
+    <t>Outgoing</t>
+  </si>
+  <si>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>Loyalty Platform</t>
+  </si>
+  <si>
+    <t>Customer, Preferences, Points</t>
+  </si>
+  <si>
+    <t>Loyalty Information, User Info, Preferences</t>
+  </si>
+  <si>
+    <t>Customer 360 profile</t>
+  </si>
+  <si>
+    <t>Booking Systems</t>
+  </si>
+  <si>
+    <t>Customer information, Booking Info</t>
+  </si>
+  <si>
+    <t>User Information, Booking</t>
+  </si>
+  <si>
+    <t>Contact Centre System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Responsible for managing customer relationships, addressing complaints, and ensuring customer satisfaction</t>
+  </si>
+  <si>
+    <t>Customer Affairs Employee</t>
+  </si>
+  <si>
+    <t>Skywards Employee</t>
+  </si>
+  <si>
+    <t>Manages the airline's loyalty program, focusing on passenger retention and rewards.</t>
+  </si>
+  <si>
+    <t>Corporate Communications Employee</t>
+  </si>
+  <si>
+    <t>Sales Agent</t>
+  </si>
+  <si>
+    <t>Focuses on revenue generation through ticket sales and in-flight retail.</t>
+  </si>
+  <si>
+    <t>Manages external communication and brand reputation.</t>
+  </si>
+  <si>
+    <t>Contact Center Agent</t>
+  </si>
+  <si>
+    <t>Handles customer inquiries, complaints, and support.</t>
+  </si>
+  <si>
+    <t>Marketing Employee</t>
+  </si>
+  <si>
+    <t>Develops marketing strategies and promotions.</t>
+  </si>
+  <si>
+    <t>Manages sales and customer experience during flights.</t>
+  </si>
+  <si>
+    <t>In-flight Retail Employee</t>
+  </si>
+  <si>
+    <t>Catering Employee</t>
+  </si>
+  <si>
+    <t>Manages in-flight meals and services.</t>
+  </si>
+  <si>
+    <t>Service Delivery Employee</t>
+  </si>
+  <si>
+    <t>Ensures quality service delivery across various touchpoints.</t>
+  </si>
+  <si>
+    <t>Focuses on overall business strategy and revenue optimization.</t>
+  </si>
+  <si>
+    <t>Manages airport-related services and logistics.</t>
+  </si>
+  <si>
+    <t>Manages ground transportation services.</t>
+  </si>
+  <si>
+    <t>Chauffer Driven Services Employee</t>
+  </si>
+  <si>
+    <t>Passengers</t>
+  </si>
+  <si>
+    <t>End-users of the airline services.</t>
+  </si>
+  <si>
+    <t>Cabin Crew</t>
+  </si>
+  <si>
+    <t>Provides in-flight services and sales.</t>
+  </si>
+  <si>
+    <t>Check-in Agents</t>
+  </si>
+  <si>
+    <t>Assists passengers during the check-in process.</t>
+  </si>
+  <si>
+    <t>Manages baggage handling and services.</t>
+  </si>
+  <si>
+    <t>Partners</t>
+  </si>
+  <si>
+    <t>External entities providing services to the airline.</t>
+  </si>
+  <si>
+    <t>Airport Operations Executive</t>
+  </si>
+  <si>
+    <t>Revenue optimization Analyst</t>
+  </si>
+  <si>
+    <t>Baggage handling services employee</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Existing/New</t>
+  </si>
+  <si>
+    <t>Enhance customer loyalty and engagement</t>
+  </si>
+  <si>
+    <t>Improve customer service and issue resolution</t>
+  </si>
+  <si>
+    <t>Ensure accurate and up-to-date passenger info</t>
+  </si>
+  <si>
+    <t>Optimize personalized offers to passengers</t>
+  </si>
+  <si>
+    <t>Improve targeted marketing strategies</t>
+  </si>
+  <si>
+    <t>Streamline check-in processes</t>
+  </si>
+  <si>
+    <t>Empower support agents with relevant information</t>
+  </si>
+  <si>
+    <t>Baggage Management Integration</t>
+  </si>
+  <si>
+    <t>Ensure efficient baggage services</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhance inflight shopping </t>
+  </si>
+  <si>
+    <t>Enhance catering experience</t>
+  </si>
+  <si>
+    <t>ADR</t>
+  </si>
+  <si>
+    <t>Personalization is part of customer 360</t>
+  </si>
+  <si>
+    <t>Ratonale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The personlized data can be shared across multiple systems </t>
+  </si>
+  <si>
+    <t>Drawbacks</t>
+  </si>
+  <si>
+    <t>Specific personalization rules for systems may have to be impmented in this system</t>
+  </si>
+  <si>
+    <t>Mitigation</t>
+  </si>
+  <si>
+    <t>Modularize personalized data</t>
+  </si>
+  <si>
+    <t>Data sharing is done as part of customer 360, identify and park PII information. This can be used by services to share data based on confidenciality an privacy.</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>The data will be shared with multiple systems but the current system wil not have a separate view. chronological timeline view will be provided as an API</t>
+  </si>
+  <si>
+    <t>customer preferences</t>
+  </si>
+  <si>
+    <t>The customer preferences will be received from multiple systems like booking, loyalty platform etc.</t>
+  </si>
+  <si>
+    <t>Case creation, prioritization, tracking and updates.
+• Case Assignment, Routing, and escalation capabilities
+• Customer Self service capabilities
+•Notifications regarding case status and closures</t>
+  </si>
+  <si>
+    <t>Direct Agent Booking Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking Agent </t>
+  </si>
+  <si>
+    <t>Agent for booking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loyalty Platform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Booking Systems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Centre System </t>
+  </si>
+  <si>
+    <t>Passenger Reservation System</t>
+  </si>
+  <si>
+    <t>Inflight Retail  System</t>
+  </si>
+  <si>
+    <t>Meal Order System</t>
+  </si>
+  <si>
+    <t>Offer Management System</t>
+  </si>
+  <si>
+    <t>Marketing Management System</t>
+  </si>
+  <si>
+    <t>Check-in Systems</t>
+  </si>
+  <si>
+    <t>Knowledge Base System</t>
+  </si>
+  <si>
+    <t>Global Distribution System</t>
+  </si>
+  <si>
+    <t>Ticket booking for the direct customers and genera sales agents (GSA).</t>
+  </si>
+  <si>
+    <t>Global sales agent system</t>
+  </si>
+  <si>
+    <t>Direct agent booking platform</t>
+  </si>
+  <si>
+    <t>Automated compensation management
+Manual compensation management
+--  flight cancellation, delays, and baggage
+mishandling.
+Business Rules Engine
+Workflow system
+Notifications</t>
+  </si>
+  <si>
+    <t>Data store of customer 360 view
+Segmentation
+Personalization features
+Marking data attributes as sensitive
+Chronological timeline view of each customer's interactions and transactions
+Customer Analytics Capabilities</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Link Name</t>
+  </si>
+  <si>
+    <t>Books Tcket</t>
+  </si>
+  <si>
+    <t>Esaki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,16 +570,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -280,11 +628,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -292,11 +736,204 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="13">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -356,10 +993,45 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1344E781-C82F-40DA-8E0D-BFB67CBDF0C9}" name="Module"/>
     <tableColumn id="2" xr3:uid="{4B1C398A-2AE5-4633-94E9-456E51A110FE}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{BFCA8D61-D16B-4DC2-A26D-ABBC815F21BF}" name="Core Business Capabilities" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{BFCA8D61-D16B-4DC2-A26D-ABBC815F21BF}" name="Core Business Capabilities" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{092D2DC3-C4FA-484A-B9CF-40F0E72164C6}" name="Key Information Assets"/>
-    <tableColumn id="5" xr3:uid="{229C72C8-5D43-4C51-9A3A-0094D6E882AF}" name="Integrations" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{229C72C8-5D43-4C51-9A3A-0094D6E882AF}" name="Integrations" dataDxfId="11"/>
     <tableColumn id="6" xr3:uid="{EADEAEF4-56DC-437E-813D-F602687CC237}" name="Comments"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2955306A-366D-4FDC-9C26-574400B435EB}" name="Table5" displayName="Table5" ref="A1:B19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
+  <autoFilter ref="A1:B19" xr:uid="{2955306A-366D-4FDC-9C26-574400B435EB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{431FB989-02B6-4B64-93B4-80F09A5C5597}" name="User " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2C1F98D1-0CB1-4BF8-AB69-3A51316A8ED1}" name="Description" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FAAEB99F-035A-4A18-A4B6-334E386ADD69}" name="Table8" displayName="Table8" ref="A1:C17" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C17" xr:uid="{FAAEB99F-035A-4A18-A4B6-334E386ADD69}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{09334E8B-D467-479B-B1C9-8C69449229E4}" name="System" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{8114E3AA-A676-4195-8122-AAEBAAC9B0AB}" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E6F186D0-5B68-46B1-8F5F-58D6313FBF45}" name="Existing/New" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{34AF645C-9071-494F-B256-63E8BD58E124}" name="Table9" displayName="Table9" ref="A1:C24" totalsRowShown="0">
+  <autoFilter ref="A1:C24" xr:uid="{34AF645C-9071-494F-B256-63E8BD58E124}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1A65F89F-A72E-49C4-A896-AA0CA2CF0CF8}" name="From"/>
+    <tableColumn id="2" xr3:uid="{0CBA63F7-4A63-4F2F-BACA-689FBB8DF1BF}" name="To"/>
+    <tableColumn id="3" xr3:uid="{5ED4C348-74B0-47CD-A2AB-BFD20209EFD2}" name="Link Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -743,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1A70FB-5AA8-45BB-BF76-CBE79A72D8C2}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,4 +1627,652 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DACDD42-D26B-4711-9B9C-FD74E97FD67E}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84B0349-BE05-4262-AC5A-53B255E68E11}">
+  <dimension ref="A1:Y20"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582B179C-3C95-45D9-AA2C-4C19F64F2159}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497A9688-D74A-4F37-AFA1-8DA6A5E82EB3}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C1A401-01B5-49AF-B551-E1D9B76F02DD}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/kata.xlsx
+++ b/kata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emiratesgroup-my.sharepoint.com/personal/sashwat_gupta_emirates_com/Documents/Documents/architecture/kata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="8_{562D9180-EB12-466D-BA6E-20803DCA07EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{689280C7-7D62-43E9-AF58-2A9E9D3A574A}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="8_{562D9180-EB12-466D-BA6E-20803DCA07EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D94302-3082-4582-BF8A-BF7A98DFDBA4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="213">
   <si>
     <t>Business Goals</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Cabin Crew</t>
   </si>
   <si>
-    <t>Provides in-flight services and sales.</t>
-  </si>
-  <si>
     <t>Check-in Agents</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
   </si>
   <si>
     <t>Ensure efficient baggage services</t>
-  </si>
-  <si>
-    <t>Existing</t>
   </si>
   <si>
     <t xml:space="preserve">Enhance inflight shopping </t>
@@ -472,9 +466,6 @@
     <t xml:space="preserve">Booking Agent </t>
   </si>
   <si>
-    <t>Agent for booking</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loyalty Platform </t>
   </si>
   <si>
@@ -515,15 +506,6 @@
   </si>
   <si>
     <t>Direct agent booking platform</t>
-  </si>
-  <si>
-    <t>Automated compensation management
-Manual compensation management
---  flight cancellation, delays, and baggage
-mishandling.
-Business Rules Engine
-Workflow system
-Notifications</t>
   </si>
   <si>
     <t>Data store of customer 360 view
@@ -534,9 +516,6 @@
 Customer Analytics Capabilities</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -546,17 +525,184 @@
     <t>Link Name</t>
   </si>
   <si>
-    <t>Books Tcket</t>
-  </si>
-  <si>
     <t>Esaki</t>
+  </si>
+  <si>
+    <t>Payment System</t>
+  </si>
+  <si>
+    <t>Refund Processing</t>
+  </si>
+  <si>
+    <t>Next best action event to Compensation Management</t>
+  </si>
+  <si>
+    <t>Retreive Custome Profile, Preferences, Booking Details</t>
+  </si>
+  <si>
+    <t>Automatically create cases, retrieve existing cases</t>
+  </si>
+  <si>
+    <t>Employee perfroms in-flight services and sales.</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>custAffEmpl</t>
+  </si>
+  <si>
+    <t>commEmpl</t>
+  </si>
+  <si>
+    <t>skyEmpl</t>
+  </si>
+  <si>
+    <t>catEmpl</t>
+  </si>
+  <si>
+    <t>salesAgent</t>
+  </si>
+  <si>
+    <t>inEmployee</t>
+  </si>
+  <si>
+    <t>contactAgent</t>
+  </si>
+  <si>
+    <t>cabinCrew</t>
+  </si>
+  <si>
+    <t>markEmpl</t>
+  </si>
+  <si>
+    <t>SerDelEmpl</t>
+  </si>
+  <si>
+    <t>revOptAnlst</t>
+  </si>
+  <si>
+    <t>airOpsExec</t>
+  </si>
+  <si>
+    <t>chDrEmpl</t>
+  </si>
+  <si>
+    <t>passengers</t>
+  </si>
+  <si>
+    <t>checkInAgent</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>bookinAgent</t>
+  </si>
+  <si>
+    <t>External Agents for booking</t>
+  </si>
+  <si>
+    <t>baggEmpl</t>
+  </si>
+  <si>
+    <t>loyalty</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>contactCenter</t>
+  </si>
+  <si>
+    <t>pss</t>
+  </si>
+  <si>
+    <t>inflghtRetail</t>
+  </si>
+  <si>
+    <t>mealOrder</t>
+  </si>
+  <si>
+    <t>offerMgmt</t>
+  </si>
+  <si>
+    <t>mrktMgmt</t>
+  </si>
+  <si>
+    <t>checkIn</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>baggageMgmt</t>
+  </si>
+  <si>
+    <t>globDist</t>
+  </si>
+  <si>
+    <t>dirAgent</t>
+  </si>
+  <si>
+    <t>custProfMgmt</t>
+  </si>
+  <si>
+    <t>compMgmt</t>
+  </si>
+  <si>
+    <t>caseMgmt</t>
+  </si>
+  <si>
+    <t>Existing System</t>
+  </si>
+  <si>
+    <t>Automated compensation management
+Manual compensation management
+--  flight cancellation, delays, and baggage mishandling.
+Business Rules Engine
+Workflow system
+Notifications</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Segmentation &amp; ML</t>
+  </si>
+  <si>
+    <t>data sharing</t>
+  </si>
+  <si>
+    <t>Data Sources</t>
+  </si>
+  <si>
+    <t>Event Hub</t>
+  </si>
+  <si>
+    <t>Identity Management</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Observability</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,8 +730,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,8 +757,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -625,6 +784,84 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,56 +908,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -728,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -737,33 +924,52 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -786,6 +992,53 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF1F2328"/>
         <name val="Segoe UI"/>
@@ -800,7 +1053,9 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -810,8 +1065,50 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -842,23 +1139,23 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -897,17 +1194,29 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -917,22 +1226,8 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -951,10 +1246,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -993,9 +1284,9 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1344E781-C82F-40DA-8E0D-BFB67CBDF0C9}" name="Module"/>
     <tableColumn id="2" xr3:uid="{4B1C398A-2AE5-4633-94E9-456E51A110FE}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{BFCA8D61-D16B-4DC2-A26D-ABBC815F21BF}" name="Core Business Capabilities" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{BFCA8D61-D16B-4DC2-A26D-ABBC815F21BF}" name="Core Business Capabilities" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{092D2DC3-C4FA-484A-B9CF-40F0E72164C6}" name="Key Information Assets"/>
-    <tableColumn id="5" xr3:uid="{229C72C8-5D43-4C51-9A3A-0094D6E882AF}" name="Integrations" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{229C72C8-5D43-4C51-9A3A-0094D6E882AF}" name="Integrations" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{EADEAEF4-56DC-437E-813D-F602687CC237}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1003,35 +1294,38 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2955306A-366D-4FDC-9C26-574400B435EB}" name="Table5" displayName="Table5" ref="A1:B19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10">
-  <autoFilter ref="A1:B19" xr:uid="{2955306A-366D-4FDC-9C26-574400B435EB}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{431FB989-02B6-4B64-93B4-80F09A5C5597}" name="User " dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2C1F98D1-0CB1-4BF8-AB69-3A51316A8ED1}" name="Description" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00A8C324-7443-4004-909A-17F903B87016}" name="Table5" displayName="Table5" ref="A1:C19" totalsRowShown="0">
+  <autoFilter ref="A1:C19" xr:uid="{00A8C324-7443-4004-909A-17F903B87016}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3E69FA6F-FDA8-4621-9978-C7F169E7FD16}" name="Short Name"/>
+    <tableColumn id="2" xr3:uid="{7808BDE1-17BB-47B7-9D66-9B183358C85A}" name="User " dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{23BCB9F6-92BA-483D-8076-D03D086AE56C}" name="Description" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FAAEB99F-035A-4A18-A4B6-334E386ADD69}" name="Table8" displayName="Table8" ref="A1:C17" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C17" xr:uid="{FAAEB99F-035A-4A18-A4B6-334E386ADD69}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{09334E8B-D467-479B-B1C9-8C69449229E4}" name="System" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{8114E3AA-A676-4195-8122-AAEBAAC9B0AB}" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E6F186D0-5B68-46B1-8F5F-58D6313FBF45}" name="Existing/New" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4576EA26-01ED-447C-AACF-4316705CB57B}" name="Table6" displayName="Table6" ref="A1:E28" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:E28" xr:uid="{4576EA26-01ED-447C-AACF-4316705CB57B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8A40B9DF-0466-40A4-ABD3-ED0324145116}" name="Name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0E8A1A4F-1CF8-4DEE-9D77-E796C46034BC}" name="System" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CA5F14B2-294D-4C84-A184-BD9E4E50D3E3}" name="Description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9C5941A3-1EAF-45EF-9D28-582648B3E8C7}" name="Existing/New" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BEC1725E-F3B5-40FC-A8F9-2E4C4208FCB5}" name="User" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{34AF645C-9071-494F-B256-63E8BD58E124}" name="Table9" displayName="Table9" ref="A1:C24" totalsRowShown="0">
-  <autoFilter ref="A1:C24" xr:uid="{34AF645C-9071-494F-B256-63E8BD58E124}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{34AF645C-9071-494F-B256-63E8BD58E124}" name="Table9" displayName="Table9" ref="A1:C25" totalsRowShown="0">
+  <autoFilter ref="A1:C25" xr:uid="{34AF645C-9071-494F-B256-63E8BD58E124}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1A65F89F-A72E-49C4-A896-AA0CA2CF0CF8}" name="From"/>
     <tableColumn id="2" xr3:uid="{0CBA63F7-4A63-4F2F-BACA-689FBB8DF1BF}" name="To"/>
-    <tableColumn id="3" xr3:uid="{5ED4C348-74B0-47CD-A2AB-BFD20209EFD2}" name="Link Name"/>
+    <tableColumn id="3" xr3:uid="{5ED4C348-74B0-47CD-A2AB-BFD20209EFD2}" name="Link Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1303,7 +1597,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A26"/>
+      <selection activeCell="A8" sqref="A8:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1A70FB-5AA8-45BB-BF76-CBE79A72D8C2}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1586,7 +1880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1699,44 +1993,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84B0349-BE05-4262-AC5A-53B255E68E11}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E2" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>custAffEmpl = person "Customer Affairs Employee" "Responsible for managing customer relationships, addressing complaints, and ensuring customer satisfaction"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>skyEmpl = person "Skywards Employee" "Manages the airline's loyalty program, focusing on passenger retention and rewards."</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1757,17 +2068,23 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>commEmpl = person "Corporate Communications Employee" "Manages external communication and brand reputation."</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1788,129 +2105,236 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="E5" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>salesAgent = person "Sales Agent" "Focuses on revenue generation through ticket sales and in-flight retail."</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="E6" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>contactAgent = person "Contact Center Agent" "Handles customer inquiries, complaints, and support."</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E7" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>markEmpl = person "Marketing Employee" "Develops marketing strategies and promotions."</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="E8" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>inEmployee = person "In-flight Retail Employee" "Manages sales and customer experience during flights."</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="E9" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>catEmpl = person "Catering Employee" "Manages in-flight meals and services."</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="E10" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>SerDelEmpl = person "Service Delivery Employee" "Ensures quality service delivery across various touchpoints."</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>revOptAnlst = person "Revenue optimization Analyst" "Focuses on overall business strategy and revenue optimization."</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>airOpsExec = person "Airport Operations Executive" "Manages airport-related services and logistics."</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>chDrEmpl = person "Chauffer Driven Services Employee" "Manages ground transportation services."</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>passengers = person "Passengers" "End-users of the airline services."</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>cabinCrew = person "Cabin Crew" "Employee perfroms in-flight services and sales."</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>checkInAgent = person "Check-in Agents" "Assists passengers during the check-in process."</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>baggEmpl = person "Baggage handling services employee" "Manages baggage handling and services."</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
+      <c r="E18" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>partner = person "Partners" "External entities providing services to the airline."</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" t="str">
+        <f>Table5[[#This Row],[Short Name]] &amp; " = person """ &amp; Table5[[#This Row],[User ]] &amp; """ """ &amp;Table5[[#This Row],[Description]] &amp; """"</f>
+        <v>bookinAgent = person "Booking Agent " "External Agents for booking"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1922,205 +2346,462 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582B179C-3C95-45D9-AA2C-4C19F64F2159}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="83.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="83.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="97.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="D2" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>loyalty = softwaresystem "Loyalty Platform " "Enhance customer loyalty and engagement" "Existing System"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>booking = softwaresystem "Booking Systems " "Ticket booking for the direct customers and genera sales agents (GSA)." "Existing System"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>contactCenter = softwaresystem "Contact Centre System " "Improve customer service and issue resolution" "Existing System"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="C5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>pss = softwaresystem "Passenger Reservation System" "Ensure accurate and up-to-date passenger info" "Existing System"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>inflghtRetail = softwaresystem "Inflight Retail  System" "Enhance inflight shopping " "Existing System"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="D7" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>mealOrder = softwaresystem "Meal Order System" "Enhance catering experience" "Existing System"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>offerMgmt = softwaresystem "Offer Management System" "Optimize personalized offers to passengers" "Existing System"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>mrktMgmt = softwaresystem "Marketing Management System" "Improve targeted marketing strategies" "Existing System"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>checkIn = softwaresystem "Check-in Systems" "Streamline check-in processes" "Existing System"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>kb = softwaresystem "Knowledge Base System" "Empower support agents with relevant information" "Existing System"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>baggageMgmt = softwaresystem "Baggage Management Integration" "Ensure efficient baggage services" "Existing System"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>globDist = softwaresystem "Global Distribution System" "Global sales agent system" "Existing System"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>dirAgent = softwaresystem "Direct Agent Booking Platform" "Direct agent booking platform" "Existing System"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="12"/>
+      <c r="F15" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>custProfMgmt = softwaresystem "Customer Profile Management" "Data store of customer 360 view
+Segmentation
+Personalization features
+Marking data attributes as sensitive
+Chronological timeline view of each customer's interactions and transactions
+Customer Analytics Capabilities"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="C16" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>compMgmt = softwaresystem "Compensation Management" "Automated compensation management
+Manual compensation management
+--  flight cancellation, delays, and baggage mishandling.
+Business Rules Engine
+Workflow system
+Notifications"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>158</v>
-      </c>
+      <c r="C17" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="str">
+        <f>Table6[[#This Row],[Name]] &amp; " = softwaresystem """ &amp; Table6[[#This Row],[System]] &amp; """ """ &amp;Table6[[#This Row],[Description]]&amp; """" &amp;IF(ISBLANK(Table6[[#This Row],[Existing/New]]), ""," ""Existing System""")</f>
+        <v>caseMgmt = softwaresystem "Case Management" "Case creation, prioritization, tracking and updates.
+• Case Assignment, Routing, and escalation capabilities
+• Customer Self service capabilities
+•Notifications regarding case status and closures"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2133,65 +2814,104 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497A9688-D74A-4F37-AFA1-8DA6A5E82EB3}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="15" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C1A401-01B5-49AF-B551-E1D9B76F02DD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2220,40 +2940,40 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
         <v>126</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2261,15 +2981,15 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/kata.xlsx
+++ b/kata.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="550" documentId="8_{562D9180-EB12-466D-BA6E-20803DCA07EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D94302-3082-4582-BF8A-BF7A98DFDBA4}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="14955" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1246,6 +1246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1709,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1A70FB-5AA8-45BB-BF76-CBE79A72D8C2}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582B179C-3C95-45D9-AA2C-4C19F64F2159}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/kata.xlsx
+++ b/kata.xlsx
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582B179C-3C95-45D9-AA2C-4C19F64F2159}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/kata.xlsx
+++ b/kata.xlsx
@@ -2352,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582B179C-3C95-45D9-AA2C-4C19F64F2159}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
